--- a/templates/facebook.xlsx
+++ b/templates/facebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop Dis" sheetId="16" r:id="rId1"/>
@@ -729,10 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF123"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5296,10 +5295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9860,10 +9858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="AE118" sqref="B63:AE118"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14424,10 +14421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18990,8 +18986,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B57" sqref="B57"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33643,7 +33638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
